--- a/BalanceSheet/JBHT_bal.xlsx
+++ b/BalanceSheet/JBHT_bal.xlsx
@@ -1898,16 +1898,16 @@
         <v>642000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-92349000.0</v>
+        <v>588000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>76341000.0</v>
+        <v>604000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>15918000.0</v>
+        <v>514000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-5392000.0</v>
+        <v>498000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>602601000.0</v>
@@ -2955,16 +2955,16 @@
         <v>723000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-19279000.0</v>
+        <v>758000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>11602000.0</v>
+        <v>711000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-14849000.0</v>
+        <v>700000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>15470000.0</v>
+        <v>715000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>699078000.0</v>
